--- a/app/data/EV_list_Canada.xlsx
+++ b/app/data/EV_list_Canada.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="168">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">FWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Toyota</t>
@@ -1659,8 +1656,8 @@
   </sheetPr>
   <dimension ref="A1:K1027"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1734,26 +1731,22 @@
       <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J2" s="11"/>
       <c r="K2" s="10" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
@@ -1762,7 +1755,7 @@
         <v>25565</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
@@ -1772,13 +1765,13 @@
     </row>
     <row r="4" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
@@ -1787,29 +1780,25 @@
         <v>28240</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="17"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="18"/>
     </row>
     <row r="5" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
@@ -1821,29 +1810,25 @@
       <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="H5" s="17"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J5" s="11"/>
       <c r="K5" s="10" t="n">
         <v>187</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="19" t="n">
         <f aca="false">30000*1.32</f>
@@ -1871,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
@@ -1883,43 +1868,39 @@
         <v>31148</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="10" t="n">
         <v>187</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>38995</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>336</v>
@@ -1934,13 +1915,13 @@
     </row>
     <row r="9" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>14</v>
@@ -1949,36 +1930,32 @@
         <v>31085</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
     <row r="10" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
         <v>42650</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>16</v>
@@ -1996,22 +1973,22 @@
     </row>
     <row r="11" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>43147</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>16</v>
@@ -2031,16 +2008,16 @@
     </row>
     <row r="12" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8" t="n">
         <v>43095</v>
@@ -2062,22 +2039,22 @@
     </row>
     <row r="13" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8" t="n">
         <v>44084</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>16</v>
@@ -2097,23 +2074,23 @@
     </row>
     <row r="14" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="13" t="n">
         <v>44995</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="27" t="n">
         <v>373</v>
@@ -2130,25 +2107,25 @@
     </row>
     <row r="15" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>43995</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="30" t="n">
         <v>443</v>
@@ -2168,22 +2145,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="8" t="n">
         <v>47243</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="31" t="n">
         <v>415</v>
@@ -2198,16 +2175,16 @@
     </row>
     <row r="17" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="19" t="n">
         <f aca="false">35000*1.32</f>
@@ -2232,22 +2209,22 @@
     </row>
     <row r="18" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>46647</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>16</v>
@@ -2267,16 +2244,16 @@
     </row>
     <row r="19" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>46710</v>
@@ -2290,13 +2267,13 @@
     </row>
     <row r="20" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
@@ -2305,40 +2282,36 @@
         <v>36865</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J20" s="11"/>
       <c r="K20" s="10" t="n">
         <v>190</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="8" t="n">
         <v>48035</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>16</v>
@@ -2356,25 +2329,25 @@
     </row>
     <row r="22" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="8" t="n">
         <v>47795</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="34" t="n">
         <v>410</v>
@@ -2394,22 +2367,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="8" t="n">
         <v>51643</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="35" t="n">
         <v>355</v>
@@ -2426,22 +2399,22 @@
     </row>
     <row r="24" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>49834</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>16</v>
@@ -2459,13 +2432,13 @@
     </row>
     <row r="25" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>14</v>
@@ -2474,18 +2447,14 @@
         <v>39665</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J25" s="11"/>
       <c r="K25" s="18" t="n">
         <v>190</v>
       </c>
@@ -2495,22 +2464,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>52343</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="31" t="n">
         <v>415</v>
@@ -2525,16 +2494,16 @@
     </row>
     <row r="27" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">46200+5000</f>
@@ -2542,7 +2511,7 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="37" t="n">
         <v>450</v>
@@ -2559,22 +2528,22 @@
     </row>
     <row r="28" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>53035</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>16</v>
@@ -2594,23 +2563,23 @@
     </row>
     <row r="29" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="8" t="n">
         <v>52995</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="38" t="n">
         <v>499</v>
@@ -2630,22 +2599,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="13" t="n">
         <v>55643</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="35" t="n">
         <v>355</v>
@@ -2662,16 +2631,16 @@
     </row>
     <row r="31" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E31" s="13" t="n">
         <v>54997</v>
@@ -2693,25 +2662,25 @@
     </row>
     <row r="32" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>86</v>
-      </c>
       <c r="C32" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="13" t="n">
         <v>54990</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="41" t="n">
         <v>438</v>
@@ -2726,23 +2695,23 @@
     </row>
     <row r="33" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="13" t="n">
         <v>54995</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="30" t="n">
         <v>441</v>
@@ -2762,22 +2731,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="13" t="n">
         <v>57643</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="42" t="n">
         <v>430</v>
@@ -2797,22 +2766,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="13" t="n">
         <v>57643</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="10"/>
@@ -2823,22 +2792,22 @@
     </row>
     <row r="36" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="43" t="n">
         <v>55838</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>16</v>
@@ -2856,23 +2825,23 @@
     </row>
     <row r="37" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="13" t="n">
         <v>56995</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" s="45" t="n">
         <v>340</v>
@@ -2887,22 +2856,22 @@
     </row>
     <row r="38" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="13" t="n">
         <v>57450</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>16</v>
@@ -2920,25 +2889,25 @@
     </row>
     <row r="39" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="13" t="n">
         <v>58035</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="46" t="n">
         <v>367</v>
@@ -2955,23 +2924,23 @@
     </row>
     <row r="40" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="13" t="n">
         <v>57995</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="30" t="n">
         <v>441</v>
@@ -2988,16 +2957,16 @@
     </row>
     <row r="41" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="13" t="n">
         <v>59597</v>
@@ -3019,25 +2988,25 @@
     </row>
     <row r="42" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="D42" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="13" t="n">
         <v>58939.3</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42" s="50" t="n">
         <v>420</v>
@@ -3054,25 +3023,25 @@
     </row>
     <row r="43" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="13" t="n">
         <v>59990</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="10"/>
@@ -3081,25 +3050,25 @@
     </row>
     <row r="44" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="13" t="n">
         <v>59950</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H44" s="54" t="n">
         <v>395</v>
@@ -3117,22 +3086,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="13" t="n">
         <v>60643</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="10"/>
@@ -3146,23 +3115,23 @@
         <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="13" t="n">
         <f aca="false">57643+6000</f>
         <v>63643</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H46" s="42" t="n">
         <v>430</v>
@@ -3179,25 +3148,25 @@
     </row>
     <row r="47" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="57" t="n">
         <v>63438</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" s="58" t="n">
         <v>330</v>
@@ -3212,25 +3181,25 @@
     </row>
     <row r="48" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="13" t="n">
         <v>63400</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="10"/>
@@ -3241,25 +3210,25 @@
     </row>
     <row r="49" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="C49" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="13" t="n">
         <v>65450</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H49" s="59" t="n">
         <v>434</v>
@@ -3274,25 +3243,25 @@
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="C50" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="13" t="n">
         <v>65339.3</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G50" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50" s="32" t="n">
         <v>480</v>
@@ -3309,16 +3278,16 @@
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="19" t="n">
         <f aca="false">E50+5000</f>
@@ -3326,7 +3295,7 @@
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" s="30" t="n">
         <v>440</v>
@@ -3341,25 +3310,25 @@
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="57" t="n">
         <v>68000</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H52" s="61" t="n">
         <v>418</v>
@@ -3374,25 +3343,25 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="13" t="n">
         <v>69990</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H53" s="28" t="n">
         <v>531</v>
@@ -3407,25 +3376,25 @@
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>86</v>
-      </c>
       <c r="C54" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="57" t="n">
         <v>72990</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H54" s="63" t="n">
         <v>423</v>
@@ -3440,25 +3409,25 @@
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="8" t="n">
         <v>76290</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55" s="65" t="n">
         <v>488</v>
@@ -11489,21 +11458,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="C1" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="D1" s="74" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="76" t="n">
         <v>5000</v>
@@ -11512,110 +11481,110 @@
         <v>70000</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="76" t="n">
         <v>4000</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="76" t="n">
         <v>2000</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="76" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="76" t="n">
         <v>5000</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="76" t="n">
         <v>3000</v>
@@ -11624,40 +11593,40 @@
         <v>55000</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="76" t="n">
         <v>5000</v>
@@ -11666,12 +11635,12 @@
         <v>55000</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="76" t="n">
         <v>7000</v>
@@ -11680,43 +11649,43 @@
         <v>60000</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="76" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="78" t="s">
         <v>144</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -11749,15 +11718,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="81" t="n">
         <v>0.05</v>
@@ -11765,7 +11734,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="81" t="n">
         <v>0</v>
@@ -11773,7 +11742,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="81" t="n">
         <v>0.07</v>
@@ -11781,7 +11750,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="81" t="n">
         <v>0.07</v>
@@ -11789,7 +11758,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="81" t="n">
         <v>0.1</v>
@@ -11797,7 +11766,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="81" t="n">
         <v>0.1</v>
@@ -11805,7 +11774,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="81" t="n">
         <v>0</v>
@@ -11813,7 +11782,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="81" t="n">
         <v>0.1</v>
@@ -11821,7 +11790,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="81" t="n">
         <v>0</v>
@@ -11829,7 +11798,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="81" t="n">
         <v>0.08</v>
@@ -11837,7 +11806,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="81" t="n">
         <v>0.1</v>
@@ -11845,7 +11814,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="81" t="n">
         <v>0.09975</v>
@@ -11853,7 +11822,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="81" t="n">
         <v>0.06</v>
@@ -11861,7 +11830,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="81" t="n">
         <v>0</v>
@@ -11869,10 +11838,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="82" t="s">
         <v>148</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11944,15 +11913,15 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="75" t="n">
         <v>146</v>
@@ -11960,7 +11929,7 @@
     </row>
     <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="75" t="n">
         <v>187.8</v>
@@ -11968,7 +11937,7 @@
     </row>
     <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="75" t="n">
         <v>163</v>
@@ -11976,7 +11945,7 @@
     </row>
     <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="75" t="n">
         <v>159.1</v>
@@ -11984,7 +11953,7 @@
     </row>
     <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="75" t="n">
         <v>165.5</v>
@@ -11992,7 +11961,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="75" t="n">
         <v>166</v>
@@ -12000,7 +11969,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="75" t="n">
         <v>151.4</v>
@@ -12008,7 +11977,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="75" t="n">
         <v>158.8</v>
@@ -12016,7 +11985,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="75" t="n">
         <v>156.1</v>
@@ -12024,7 +11993,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="75" t="n">
         <v>161.2</v>
@@ -12032,7 +12001,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="75" t="n">
         <v>166.4</v>
@@ -12040,7 +12009,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="75" t="n">
         <v>160</v>
@@ -12048,7 +12017,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="75" t="n">
         <v>183.9</v>
@@ -12056,10 +12025,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="82" t="s">
         <v>151</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -12091,15 +12060,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="80" t="n">
         <v>16.6</v>
@@ -12107,7 +12076,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="80" t="n">
         <v>12.6</v>
@@ -12115,7 +12084,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="80" t="n">
         <v>9.9</v>
@@ -12123,7 +12092,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="80" t="n">
         <v>12.7</v>
@@ -12131,7 +12100,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="80" t="n">
         <v>13.8</v>
@@ -12139,7 +12108,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="80" t="n">
         <v>38.2</v>
@@ -12147,7 +12116,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="80" t="n">
         <v>17.1</v>
@@ -12155,7 +12124,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="80" t="n">
         <v>37.5</v>
@@ -12163,7 +12132,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="80" t="n">
         <v>13</v>
@@ -12171,7 +12140,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="80" t="n">
         <v>17.4</v>
@@ -12179,7 +12148,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="80" t="n">
         <v>7.3</v>
@@ -12187,7 +12156,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="80" t="n">
         <v>18.1</v>
@@ -12195,7 +12164,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="80" t="n">
         <v>18.7</v>
@@ -12203,10 +12172,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -12238,15 +12207,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="85" t="n">
         <v>2700</v>
@@ -12254,7 +12223,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="85" t="n">
         <v>1800</v>
@@ -12262,7 +12231,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="85" t="n">
         <v>2195</v>
@@ -12270,7 +12239,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="85" t="n">
         <v>2075</v>
@@ -12286,7 +12255,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="85" t="n">
         <v>2000</v>
@@ -12294,7 +12263,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="85" t="n">
         <v>1995</v>
@@ -12302,7 +12271,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="85" t="n">
         <v>2215</v>
@@ -12310,7 +12279,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="85" t="n">
         <v>2300</v>
@@ -12318,7 +12287,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="85" t="n">
         <v>1880</v>
@@ -12326,7 +12295,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="85" t="n">
         <v>1890</v>
@@ -12334,7 +12303,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="85" t="n">
         <v>2435</v>
@@ -12342,7 +12311,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="85" t="n">
         <v>2000</v>
@@ -12350,7 +12319,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="85" t="n">
         <v>3195</v>
@@ -12387,10 +12356,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>159</v>
       </c>
       <c r="C1" s="86" t="s">
         <v>5</v>
@@ -12398,46 +12367,46 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="C2" s="87" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>164</v>
-      </c>
       <c r="C3" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>166</v>
-      </c>
       <c r="C4" s="82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>168</v>
-      </c>
       <c r="C5" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/EV_list_Canada.xlsx
+++ b/app/data/EV_list_Canada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="196">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -490,67 +490,64 @@
     <t xml:space="preserve">If MSRP below...</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition</t>
-  </si>
-  <si>
     <t xml:space="preserve">Federal</t>
   </si>
   <si>
+    <t xml:space="preserve">Alberta</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Alberta</t>
+    <t xml:space="preserve">British Columbia (&lt;80k$ income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Columbia (80k~90k$ income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Columbia (&gt;90k$ income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Brunswick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwest Territories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Scotia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunavut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince Edward Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quebec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saskatchewan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yukon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: plugndrive.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.plugndrive.ca/electric-vehicle-incentives/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
   </si>
   <si>
     <t xml:space="preserve">British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 80k$ ind. income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between 80k$ and 90k$ ind. income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 90k$ ind. income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Brunswick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newfoundland and Labrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northwest Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova Scotia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nunavut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince Edward Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quebec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saskatchewan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: plugndrive.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.plugndrive.ca/electric-vehicle-incentives/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
   </si>
   <si>
     <t xml:space="preserve">Manitoba</t>
@@ -782,7 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6EC58A"/>
+        <fgColor rgb="FF6FC68B"/>
         <bgColor rgb="FF7CC890"/>
       </patternFill>
     </fill>
@@ -818,7 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6EC58A"/>
+        <fgColor rgb="FF6FC68B"/>
         <bgColor rgb="FF7CC890"/>
       </patternFill>
     </fill>
@@ -848,8 +845,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF68B165"/>
-        <bgColor rgb="FF6EC58A"/>
+        <fgColor rgb="FF69B063"/>
+        <bgColor rgb="FF6FC68B"/>
       </patternFill>
     </fill>
     <fill>
@@ -938,8 +935,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF68B165"/>
-        <bgColor rgb="FF6EC58A"/>
+        <fgColor rgb="FF69B063"/>
+        <bgColor rgb="FF6FC68B"/>
       </patternFill>
     </fill>
     <fill>
@@ -969,7 +966,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF68B165"/>
+        <bgColor rgb="FF69B063"/>
       </patternFill>
     </fill>
     <fill>
@@ -1666,7 +1663,7 @@
       <rgbColor rgb="FFE6B8AF"/>
       <rgbColor rgb="FFF9D9B9"/>
       <rgbColor rgb="FF1F6EE1"/>
-      <rgbColor rgb="FF6EC58A"/>
+      <rgbColor rgb="FF6FC68B"/>
       <rgbColor rgb="FF93C47D"/>
       <rgbColor rgb="FFEC9B8A"/>
       <rgbColor rgb="FFF6B26B"/>
@@ -1674,7 +1671,7 @@
       <rgbColor rgb="FF99CE98"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFB7E1CD"/>
-      <rgbColor rgb="FF68B165"/>
+      <rgbColor rgb="FF69B063"/>
       <rgbColor rgb="FFECECC5"/>
       <rgbColor rgb="FFC1DEB4"/>
       <rgbColor rgb="FFB4DAAF"/>
@@ -1693,8 +1690,8 @@
   </sheetPr>
   <dimension ref="A1:K1051"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12169,10 +12166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12180,7 +12177,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,13 +12190,10 @@
       <c r="C1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="70" t="n">
         <v>5000</v>
@@ -12207,13 +12201,10 @@
       <c r="C2" s="70" t="n">
         <v>70000</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="70" t="n">
         <v>0</v>
@@ -12221,13 +12212,10 @@
       <c r="C3" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="70" t="n">
         <v>4000</v>
@@ -12235,11 +12223,8 @@
       <c r="C4" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="69" t="s">
         <v>158</v>
       </c>
@@ -12249,13 +12234,10 @@
       <c r="C5" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="69" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" s="70" t="n">
         <v>1000</v>
@@ -12263,13 +12245,10 @@
       <c r="C6" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="70" t="n">
         <v>5000</v>
@@ -12277,13 +12256,10 @@
       <c r="C7" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="70" t="n">
         <v>0</v>
@@ -12291,13 +12267,10 @@
       <c r="C8" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="70" t="n">
         <v>0</v>
@@ -12305,13 +12278,10 @@
       <c r="C9" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="70" t="n">
         <v>3000</v>
@@ -12319,13 +12289,10 @@
       <c r="C10" s="70" t="n">
         <v>55000</v>
       </c>
-      <c r="D10" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="70" t="n">
         <v>0</v>
@@ -12333,13 +12300,10 @@
       <c r="C11" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="70" t="n">
         <v>0</v>
@@ -12347,13 +12311,10 @@
       <c r="C12" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="70" t="n">
         <v>5000</v>
@@ -12361,13 +12322,10 @@
       <c r="C13" s="70" t="n">
         <v>55000</v>
       </c>
-      <c r="D13" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="70" t="n">
         <v>7000</v>
@@ -12375,13 +12333,10 @@
       <c r="C14" s="70" t="n">
         <v>60000</v>
       </c>
-      <c r="D14" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="70" t="n">
         <v>0</v>
@@ -12389,13 +12344,10 @@
       <c r="C15" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="70" t="n">
         <v>0</v>
@@ -12403,16 +12355,13 @@
       <c r="C16" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="71" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -12448,12 +12397,12 @@
         <v>151</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="75" t="n">
         <v>0.05</v>
@@ -12461,7 +12410,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="75" t="n">
         <v>0</v>
@@ -12469,7 +12418,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B4" s="75" t="n">
         <v>0.07</v>
@@ -12477,7 +12426,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="75" t="n">
         <v>0.07</v>
@@ -12485,7 +12434,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="75" t="n">
         <v>0.1</v>
@@ -12493,7 +12442,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="75" t="n">
         <v>0.1</v>
@@ -12501,7 +12450,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="75" t="n">
         <v>0</v>
@@ -12509,7 +12458,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="75" t="n">
         <v>0.1</v>
@@ -12517,7 +12466,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="75" t="n">
         <v>0</v>
@@ -12525,7 +12474,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="75" t="n">
         <v>0.08</v>
@@ -12533,7 +12482,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="75" t="n">
         <v>0.1</v>
@@ -12541,7 +12490,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="75" t="n">
         <v>0.09975</v>
@@ -12549,7 +12498,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="75" t="n">
         <v>0.06</v>
@@ -12557,7 +12506,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="75" t="n">
         <v>0</v>
@@ -12565,10 +12514,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>176</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12643,12 +12592,12 @@
         <v>151</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="69" t="n">
         <v>146</v>
@@ -12656,7 +12605,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="69" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B3" s="69" t="n">
         <v>187.8</v>
@@ -12664,7 +12613,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="69" t="n">
         <v>163</v>
@@ -12672,7 +12621,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="69" t="n">
         <v>159.1</v>
@@ -12680,7 +12629,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="69" t="n">
         <v>165.5</v>
@@ -12688,7 +12637,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="69" t="n">
         <v>166</v>
@@ -12696,7 +12645,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="69" t="n">
         <v>151.4</v>
@@ -12704,7 +12653,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="69" t="n">
         <v>158.8</v>
@@ -12712,7 +12661,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="69" t="n">
         <v>156.1</v>
@@ -12720,7 +12669,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="69" t="n">
         <v>161.2</v>
@@ -12728,7 +12677,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12" s="69" t="n">
         <v>166.4</v>
@@ -12736,7 +12685,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="69" t="n">
         <v>160</v>
@@ -12744,7 +12693,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="69" t="n">
         <v>183.9</v>
@@ -12752,10 +12701,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="76" t="s">
         <v>179</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -12790,12 +12739,12 @@
         <v>151</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="74" t="n">
         <v>16.6</v>
@@ -12803,7 +12752,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B3" s="74" t="n">
         <v>12.6</v>
@@ -12811,7 +12760,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="74" t="n">
         <v>9.9</v>
@@ -12819,7 +12768,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="74" t="n">
         <v>12.7</v>
@@ -12827,7 +12776,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="74" t="n">
         <v>13.8</v>
@@ -12835,7 +12784,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="74" t="n">
         <v>38.2</v>
@@ -12843,7 +12792,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="74" t="n">
         <v>17.1</v>
@@ -12851,7 +12800,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="74" t="n">
         <v>37.5</v>
@@ -12859,7 +12808,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="74" t="n">
         <v>13</v>
@@ -12867,7 +12816,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="74" t="n">
         <v>17.4</v>
@@ -12875,7 +12824,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12" s="74" t="n">
         <v>7.3</v>
@@ -12883,7 +12832,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="74" t="n">
         <v>18.1</v>
@@ -12891,7 +12840,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="74" t="n">
         <v>18.7</v>
@@ -12899,10 +12848,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="76" t="s">
         <v>182</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -12934,10 +12883,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>184</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,10 +13032,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>187</v>
       </c>
       <c r="C1" s="80" t="s">
         <v>5</v>
@@ -13094,46 +13043,46 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="C2" s="81" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>192</v>
-      </c>
       <c r="C3" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>194</v>
-      </c>
       <c r="C4" s="76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/EV_list_Canada.xlsx
+++ b/app/data/EV_list_Canada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,6 @@
     <sheet name="Gas" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Electricity" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Fees" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sources" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="183">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -73,7 +72,7 @@
     <t xml:space="preserve">ICE</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=civic_sedan&amp;model_year=2023#/trims</t>
+    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=civic_sedan&amp;model_year=2024#/models</t>
   </si>
   <si>
     <t xml:space="preserve">FWD</t>
@@ -82,48 +81,45 @@
     <t xml:space="preserve">EX</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=civic_sedan&amp;model_year=2024#/trims</t>
+    <t xml:space="preserve">Touring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LX-B 2WD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=hr_v&amp;model_year=2024#/trims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LX-B AWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LX 2WD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=cr-v&amp;model_year=2024#/trims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LX AWD</t>
   </si>
   <si>
     <t xml:space="preserve">Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">Touring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LX-B 2WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=hr_v&amp;model_year=2024#/trims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LX-B AWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sport-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LX 2WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.honda.ca/buildyourhonda?model_key=cr-v&amp;model_year=2023#/trims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LX AWD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toyota</t>
   </si>
   <si>
@@ -136,9 +132,6 @@
     <t xml:space="preserve">https://www.toyota.ca/toyota/en/build-price/corolla</t>
   </si>
   <si>
-    <t xml:space="preserve">LE CVT</t>
-  </si>
-  <si>
     <t xml:space="preserve">SE CVT</t>
   </si>
   <si>
@@ -151,15 +144,18 @@
     <t xml:space="preserve">LE AWD</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.toyota.ca/toyota/en/build-price/rav4?series=RAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLE AWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail AWD</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.toyota.ca/toyota/en/build-price/rav4?series=RAV&amp;model=B1RFVT&amp;year=2023</t>
   </si>
   <si>
-    <t xml:space="preserve">XLE AWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trail AWD</t>
-  </si>
-  <si>
     <t xml:space="preserve">bZ4X</t>
   </si>
   <si>
@@ -187,7 +183,7 @@
     <t xml:space="preserve">Essential</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-elantra&amp;filter=gasoline</t>
+    <t xml:space="preserve">https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-elantra&amp;filter=gasoline4</t>
   </si>
   <si>
     <t xml:space="preserve">Tuscon</t>
@@ -208,9 +204,6 @@
     <t xml:space="preserve">https://www.hyundaicanada.com/en/shopping-tools/buildandprice</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred AWD</t>
-  </si>
-  <si>
     <t xml:space="preserve">N Line AWD</t>
   </si>
   <si>
@@ -581,39 +574,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugndrive.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.plugndrive.ca/electric-vehicle-incentives/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canadadrives.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energyhub.com</t>
   </si>
 </sst>
 </file>
@@ -627,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -708,13 +668,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -779,7 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FC68B"/>
+        <fgColor rgb="FF70C78C"/>
         <bgColor rgb="FF7CC890"/>
       </patternFill>
     </fill>
@@ -815,7 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6FC68B"/>
+        <fgColor rgb="FF70C78C"/>
         <bgColor rgb="FF7CC890"/>
       </patternFill>
     </fill>
@@ -845,8 +798,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF69B063"/>
-        <bgColor rgb="FF6FC68B"/>
+        <fgColor rgb="FF69B061"/>
+        <bgColor rgb="FF70C78C"/>
       </patternFill>
     </fill>
     <fill>
@@ -935,8 +888,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF69B063"/>
-        <bgColor rgb="FF6FC68B"/>
+        <fgColor rgb="FF69B061"/>
+        <bgColor rgb="FF70C78C"/>
       </patternFill>
     </fill>
     <fill>
@@ -966,7 +919,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF69B063"/>
+        <bgColor rgb="FF69B061"/>
       </patternFill>
     </fill>
     <fill>
@@ -1051,7 +1004,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1372,14 +1325,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="43" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1663,7 +1608,7 @@
       <rgbColor rgb="FFE6B8AF"/>
       <rgbColor rgb="FFF9D9B9"/>
       <rgbColor rgb="FF1F6EE1"/>
-      <rgbColor rgb="FF6FC68B"/>
+      <rgbColor rgb="FF70C78C"/>
       <rgbColor rgb="FF93C47D"/>
       <rgbColor rgb="FFEC9B8A"/>
       <rgbColor rgb="FFF6B26B"/>
@@ -1671,7 +1616,7 @@
       <rgbColor rgb="FF99CE98"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFB7E1CD"/>
-      <rgbColor rgb="FF69B063"/>
+      <rgbColor rgb="FF69B061"/>
       <rgbColor rgb="FFECECC5"/>
       <rgbColor rgb="FFC1DEB4"/>
       <rgbColor rgb="FFB4DAAF"/>
@@ -1688,10 +1633,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1051"/>
+  <dimension ref="A1:K1048"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1757,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>28745</v>
+        <v>26790</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>15</v>
@@ -1786,10 +1731,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>31605</v>
+        <v>29650</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
@@ -1809,16 +1754,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>32705</v>
+        <v>34500</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>16</v>
@@ -1827,7 +1772,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
@@ -1844,19 +1789,19 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>36455</v>
+        <v>31092</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14" t="n">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,19 +1809,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>31085</v>
+        <v>33392</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>24</v>
@@ -1893,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -1902,13 +1847,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>33385</v>
+        <v>36292</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1922,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
@@ -1930,20 +1875,20 @@
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>36285</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>24</v>
+      <c r="E8" s="16" t="n">
+        <v>37257</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="14" t="n">
-        <v>158</v>
+      <c r="K8" s="12" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,7 +1896,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
@@ -1959,19 +1904,19 @@
       <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16" t="n">
-        <v>37250</v>
+      <c r="E9" s="8" t="n">
+        <v>40057</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="12" t="n">
+      <c r="K9" s="14" t="n">
         <v>190</v>
       </c>
     </row>
@@ -1980,22 +1925,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>40050</v>
+        <v>44207</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -2006,51 +1951,51 @@
     </row>
     <row r="11" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>44200</v>
+        <v>26372.5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
       <c r="K11" s="14" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="8" t="n">
-        <v>25925</v>
+        <v>28932.5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>16</v>
@@ -2064,10 +2009,10 @@
     </row>
     <row r="13" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
@@ -2076,10 +2021,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="8" t="n">
-        <v>26925</v>
+        <v>34032</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>16</v>
@@ -2093,83 +2038,83 @@
     </row>
     <row r="14" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>28525</v>
+        <v>36202</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
       <c r="K14" s="14" t="n">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>33625</v>
+        <v>39902</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
       <c r="K15" s="14" t="n">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="8" t="n">
-        <v>35635</v>
+        <v>43602</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
@@ -2180,212 +2125,212 @@
     </row>
     <row r="17" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>39395</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="16" t="n">
+        <v>48042.5</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>406</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14" t="n">
-        <v>203</v>
+      <c r="J17" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>43095</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <v>53042.5</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14" t="n">
-        <v>203</v>
+        <v>16</v>
+      </c>
+      <c r="H18" s="18" t="n">
+        <v>406</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="8" t="n">
+        <v>58042.5</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="16" t="n">
-        <v>48035</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="G19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="18" t="n">
-        <v>406</v>
-      </c>
-      <c r="I19" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>367</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="J19" s="12" t="n">
         <v>150</v>
       </c>
       <c r="K19" s="12" t="n">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="n">
-        <v>53035</v>
+        <v>22956</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="18" t="n">
-        <v>406</v>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>150</v>
-      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="12" t="n">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>58035</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="16" t="n">
+        <v>3111</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="19" t="n">
-        <v>367</v>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>150</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="12" t="n">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="16" t="n">
-        <v>22948</v>
+        <v>33581</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
       <c r="K22" s="12" t="n">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="16" t="n">
-        <v>31148</v>
+        <v>41181</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>24</v>
@@ -2399,83 +2344,79 @@
     </row>
     <row r="24" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="16" t="n">
-        <v>33548</v>
+        <v>28681</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="12" t="n">
-        <v>187</v>
-      </c>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="16" t="n">
-        <v>41148</v>
+        <v>31181</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="12" t="n">
-        <v>187</v>
-      </c>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="16" t="n">
-        <v>28648</v>
+        <v>38181</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
@@ -2484,440 +2425,460 @@
     </row>
     <row r="27" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="16" t="n">
-        <v>31148</v>
+        <v>45</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>57643</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="H27" s="20" t="n">
+        <v>355</v>
+      </c>
+      <c r="I27" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" s="12" t="n">
+        <v>220</v>
+      </c>
+      <c r="K27" s="12" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="28" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>59643</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>430</v>
+      </c>
+      <c r="I28" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" s="12" t="n">
+        <v>220</v>
+      </c>
+      <c r="K28" s="12" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="16" t="n">
-        <v>33148</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
+      <c r="C29" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="16" t="n">
-        <v>38148</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <f aca="false">E28+6000</f>
+        <v>65643</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>430</v>
+      </c>
+      <c r="I29" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" s="12" t="n">
+        <v>220</v>
+      </c>
+      <c r="K29" s="24" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="8" t="n">
-        <v>57643</v>
+        <v>45</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <v>47243</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="20" t="n">
-        <v>355</v>
-      </c>
-      <c r="I30" s="12" t="n">
-        <v>11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H30" s="25" t="n">
+        <v>415</v>
+      </c>
+      <c r="I30" s="12"/>
       <c r="J30" s="12" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="K30" s="12" t="n">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>59643</v>
+        <v>45</v>
+      </c>
+      <c r="E31" s="16" t="n">
+        <v>52343</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <v>430</v>
-      </c>
-      <c r="I31" s="12" t="n">
-        <v>11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H31" s="25" t="n">
+        <v>415</v>
+      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="12" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="K31" s="12" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="8" t="n">
-        <f aca="false">E31+6000</f>
-        <v>65643</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="21" t="n">
-        <v>430</v>
-      </c>
-      <c r="I32" s="23" t="n">
-        <v>11</v>
-      </c>
+        <v>57643</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="12" t="n">
         <v>220</v>
       </c>
-      <c r="K32" s="24" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="16" t="n">
-        <v>47243</v>
+        <v>45</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>60643</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="25" t="n">
-        <v>415</v>
-      </c>
+      <c r="H33" s="21"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12" t="n">
-        <v>75</v>
-      </c>
-      <c r="K33" s="12" t="n">
-        <v>201</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="16" t="n">
-        <v>52343</v>
+        <v>42650</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="25" t="n">
-        <v>415</v>
+        <v>16</v>
+      </c>
+      <c r="H34" s="26" t="n">
+        <v>161</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K34" s="12" t="n">
-        <v>201</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="16" t="n">
+        <v>43147</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="27" t="n">
+        <v>397</v>
+      </c>
+      <c r="I35" s="12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J35" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>57643</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12" t="n">
-        <v>220</v>
-      </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="16" t="n">
+        <v>46647</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="27" t="n">
+        <v>397</v>
+      </c>
+      <c r="I36" s="12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J36" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>60643</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12" t="n">
-        <v>220</v>
-      </c>
-      <c r="K36" s="12"/>
+      <c r="K36" s="12" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="37" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="16" t="n">
-        <v>42650</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>76</v>
-      </c>
+        <f aca="false">30000*1.32</f>
+        <v>39600</v>
+      </c>
+      <c r="F37" s="16"/>
       <c r="G37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="26" t="n">
-        <v>161</v>
-      </c>
-      <c r="I37" s="12"/>
+      <c r="H37" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" s="12" t="n">
+        <v>11.5</v>
+      </c>
       <c r="J37" s="12" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K37" s="12" t="n">
-        <v>143</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="16" t="n">
-        <v>43147</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>80</v>
-      </c>
+        <f aca="false">35000*1.32</f>
+        <v>46200</v>
+      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="27" t="n">
-        <v>397</v>
+      <c r="H38" s="29" t="n">
+        <v>480</v>
       </c>
       <c r="I38" s="12" t="n">
         <v>11.5</v>
       </c>
       <c r="J38" s="12" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K38" s="12" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="16" t="n">
-        <v>46647</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="27" t="n">
-        <v>397</v>
+        <f aca="false">46200+5000</f>
+        <v>51200</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="30" t="n">
+        <v>450</v>
       </c>
       <c r="I39" s="12" t="n">
         <v>11.5</v>
       </c>
       <c r="J39" s="12" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K39" s="12" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="16" t="n">
-        <f aca="false">30000*1.32</f>
-        <v>39600</v>
+        <v>45</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>54997</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="28" t="n">
+      <c r="H40" s="31" t="n">
         <v>400</v>
       </c>
       <c r="I40" s="12" t="n">
@@ -2926,33 +2887,31 @@
       <c r="J40" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="K40" s="12" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="16" t="n">
-        <f aca="false">35000*1.32</f>
-        <v>46200</v>
+        <f aca="false">E66+5000</f>
+        <v>70339.3</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="29" t="n">
-        <v>480</v>
+      <c r="G41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="32" t="n">
+        <v>440</v>
       </c>
       <c r="I41" s="12" t="n">
         <v>11.5</v>
@@ -2960,33 +2919,30 @@
       <c r="J41" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="K41" s="12" t="n">
-        <v>210</v>
-      </c>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="16" t="n">
-        <f aca="false">46200+5000</f>
-        <v>51200</v>
+        <v>45</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>59597</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="30" t="n">
-        <v>450</v>
+      <c r="G42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="33" t="n">
+        <v>470</v>
       </c>
       <c r="I42" s="12" t="n">
         <v>11.5</v>
@@ -2994,1183 +2950,1111 @@
       <c r="J42" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="K42" s="12" t="n">
-        <v>290</v>
-      </c>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="8" t="n">
-        <v>54997</v>
+        <v>14</v>
+      </c>
+      <c r="E43" s="16" t="n">
+        <v>28595</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I43" s="12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J43" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="12" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="16" t="n">
-        <f aca="false">E69+5000</f>
-        <v>70339.3</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="32" t="n">
-        <v>440</v>
-      </c>
-      <c r="I44" s="12" t="n">
-        <v>11.5</v>
-      </c>
+        <v>43095</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="34" t="n">
+        <v>248</v>
+      </c>
+      <c r="I44" s="12"/>
       <c r="J44" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="K44" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="K44" s="12" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="45" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="8" t="n">
-        <v>59597</v>
-      </c>
-      <c r="F45" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="E45" s="16" t="n">
+        <v>55995</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="G45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="33" t="n">
-        <v>470</v>
+        <v>22</v>
+      </c>
+      <c r="H45" s="35" t="n">
+        <v>499</v>
       </c>
       <c r="I45" s="12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J45" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="K45" s="12"/>
+        <v>220</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="46" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="16" t="n">
-        <v>28595</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>58495</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="32" t="n">
+        <v>441</v>
+      </c>
+      <c r="I46" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" s="12" t="n">
+        <v>220</v>
+      </c>
       <c r="K46" s="12" t="n">
-        <v>187</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>60995</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="16" t="n">
-        <v>43095</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="G47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="34" t="n">
-        <v>248</v>
-      </c>
-      <c r="I47" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="H47" s="32" t="n">
+        <v>441</v>
+      </c>
+      <c r="I47" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="J47" s="12" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K47" s="12" t="n">
-        <v>147</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="n">
-        <v>55995</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>92</v>
+        <v>44084</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="35" t="n">
-        <v>499</v>
+        <v>16</v>
+      </c>
+      <c r="H48" s="36" t="n">
+        <v>240</v>
       </c>
       <c r="I48" s="12" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="J48" s="12" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K48" s="12" t="n">
-        <v>225</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>58495</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="E49" s="16" t="n">
+        <v>49834</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="32" t="n">
-        <v>441</v>
-      </c>
-      <c r="I49" s="12" t="n">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H49" s="37" t="n">
+        <v>342</v>
+      </c>
+      <c r="I49" s="12"/>
       <c r="J49" s="12" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K49" s="12" t="n">
-        <v>320</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="8" t="n">
-        <v>60995</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="E50" s="16" t="n">
+        <v>52684</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="32" t="n">
-        <v>441</v>
-      </c>
-      <c r="I50" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" s="12" t="n">
-        <v>220</v>
-      </c>
-      <c r="K50" s="12" t="n">
-        <v>320</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="16" t="n">
-        <v>44084</v>
+        <v>45</v>
+      </c>
+      <c r="E51" s="38" t="n">
+        <v>55838</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="36" t="n">
-        <v>240</v>
-      </c>
-      <c r="I51" s="12" t="n">
-        <v>6.6</v>
-      </c>
+      <c r="H51" s="39" t="n">
+        <v>348</v>
+      </c>
+      <c r="I51" s="12"/>
       <c r="J51" s="12" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K51" s="12" t="n">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="16" t="n">
-        <v>49834</v>
+        <v>45</v>
+      </c>
+      <c r="E52" s="40" t="n">
+        <v>63438</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="37" t="n">
-        <v>342</v>
+        <v>24</v>
+      </c>
+      <c r="H52" s="41" t="n">
+        <v>330</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K52" s="12" t="n">
-        <v>214</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="16" t="n">
-        <v>52684</v>
+        <v>38995</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="37"/>
+        <v>22</v>
+      </c>
+      <c r="H53" s="42" t="n">
+        <v>336</v>
+      </c>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="J53" s="12" t="n">
+        <v>125</v>
+      </c>
+      <c r="K53" s="12" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="54" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="38" t="n">
-        <v>55838</v>
+        <v>45</v>
+      </c>
+      <c r="E54" s="16" t="n">
+        <v>43995</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="39" t="n">
-        <v>348</v>
-      </c>
-      <c r="I54" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="H54" s="32" t="n">
+        <v>443</v>
+      </c>
+      <c r="I54" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="J54" s="12" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K54" s="12" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="40" t="n">
-        <v>63438</v>
+        <v>45</v>
+      </c>
+      <c r="E55" s="16" t="n">
+        <v>47795</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="41" t="n">
-        <v>330</v>
-      </c>
-      <c r="I55" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="H55" s="43" t="n">
+        <v>410</v>
+      </c>
+      <c r="I55" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="J55" s="12" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K55" s="12" t="n">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="n">
-        <v>38995</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>110</v>
-      </c>
+        <v>44055</v>
+      </c>
+      <c r="F56" s="17"/>
       <c r="G56" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="42" t="n">
-        <v>336</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H56" s="43"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="12" t="n">
-        <v>125</v>
-      </c>
+      <c r="J56" s="12"/>
       <c r="K56" s="12" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16" t="n">
-        <v>43995</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>110</v>
-      </c>
+        <v>47225</v>
+      </c>
+      <c r="F57" s="17"/>
       <c r="G57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="32" t="n">
-        <v>443</v>
-      </c>
-      <c r="I57" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J57" s="12" t="n">
-        <v>125</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H57" s="43"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
       <c r="K57" s="12" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="16" t="n">
-        <v>47795</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>110</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>56995</v>
+      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="43" t="n">
-        <v>410</v>
-      </c>
-      <c r="I58" s="12" t="n">
-        <v>11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H58" s="44" t="n">
+        <v>340</v>
+      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="12" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K58" s="12" t="n">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="16" t="n">
-        <v>44055</v>
-      </c>
-      <c r="F59" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>61995</v>
+      </c>
+      <c r="F59" s="16"/>
       <c r="G59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="43"/>
+        <v>22</v>
+      </c>
+      <c r="H59" s="44" t="n">
+        <v>340</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="12" t="n">
-        <v>290</v>
-      </c>
+      <c r="K59" s="12"/>
     </row>
     <row r="60" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="16" t="n">
-        <v>47225</v>
-      </c>
-      <c r="F60" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>69995</v>
+      </c>
+      <c r="F60" s="16"/>
       <c r="G60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="43"/>
+      <c r="H60" s="44" t="n">
+        <v>505</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="12" t="n">
-        <v>290</v>
-      </c>
+      <c r="K60" s="12"/>
     </row>
     <row r="61" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="D61" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61" s="8" t="n">
-        <v>56995</v>
+        <v>69000</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="44" t="n">
-        <v>340</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H61" s="44"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="12" t="n">
-        <v>115</v>
-      </c>
-      <c r="K61" s="12" t="n">
-        <v>266</v>
-      </c>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
     </row>
     <row r="62" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62" s="8" t="n">
-        <v>61995</v>
+        <v>80000</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="44" t="n">
-        <v>340</v>
-      </c>
+      <c r="H62" s="44"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="8" t="n">
-        <v>69995</v>
-      </c>
-      <c r="F63" s="16"/>
+        <v>57450</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="G63" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="44" t="n">
-        <v>505</v>
+        <v>16</v>
+      </c>
+      <c r="H63" s="21" t="n">
+        <v>430</v>
       </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="J63" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K63" s="12" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="64" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64" s="8" t="n">
-        <v>69000</v>
-      </c>
-      <c r="F64" s="16"/>
+        <v>65450</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="G64" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="44"/>
+      <c r="H64" s="45" t="n">
+        <v>434</v>
+      </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="J64" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K64" s="12" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="65" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>46</v>
+        <v>127</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="E65" s="8" t="n">
-        <v>80000</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="44"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58939.3</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="48" t="n">
+        <v>420</v>
+      </c>
+      <c r="I65" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J65" s="49" t="n">
+        <v>180</v>
+      </c>
+      <c r="K65" s="50" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>46</v>
+        <v>129</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="E66" s="8" t="n">
-        <v>57450</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="21" t="n">
-        <v>430</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="K66" s="12" t="n">
-        <v>231</v>
+        <v>65339.3</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="29" t="n">
+        <v>480</v>
+      </c>
+      <c r="I66" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" s="51" t="n">
+        <v>205</v>
+      </c>
+      <c r="K66" s="52" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="67" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>65450</v>
+        <v>63400</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="45" t="n">
-        <v>434</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="12" t="n">
-        <v>150</v>
-      </c>
+      <c r="J67" s="12"/>
       <c r="K67" s="12" t="n">
-        <v>408</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="8" t="n">
-        <v>58939.3</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="16" t="n">
+        <v>46710</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>59950</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H68" s="48" t="n">
-        <v>420</v>
-      </c>
-      <c r="I68" s="23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" s="49" t="n">
-        <v>180</v>
-      </c>
-      <c r="K68" s="50" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="8" t="n">
-        <v>65339.3</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="47" t="s">
+      <c r="H69" s="53" t="n">
+        <v>395</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K69" s="12" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="40" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="29" t="n">
-        <v>480</v>
-      </c>
-      <c r="I69" s="23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J69" s="51" t="n">
-        <v>205</v>
-      </c>
-      <c r="K69" s="52" t="n">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="8" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="6"/>
+      <c r="H70" s="54" t="n">
+        <v>418</v>
+      </c>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="12" t="n">
+        <v>150</v>
+      </c>
       <c r="K70" s="12" t="n">
-        <v>295</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>109</v>
+        <v>140</v>
+      </c>
+      <c r="B71" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="16" t="n">
-        <v>46710</v>
-      </c>
-      <c r="F71" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>54990</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="G71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="56" t="n">
+        <v>438</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12" t="n">
+        <v>170</v>
+      </c>
+      <c r="K71" s="12" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="40" t="n">
+        <v>64990</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-    </row>
-    <row r="72" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="8" t="n">
-        <v>59950</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="53" t="n">
-        <v>395</v>
+      <c r="H72" s="58" t="n">
+        <v>423</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K72" s="12" t="n">
-        <v>402</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="A73" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="55" t="s">
         <v>141</v>
       </c>
+      <c r="C73" s="55" t="s">
+        <v>144</v>
+      </c>
       <c r="D73" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E73" s="40" t="n">
-        <v>68000</v>
+        <v>73290</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="54" t="n">
-        <v>418</v>
+        <v>24</v>
+      </c>
+      <c r="H73" s="58" t="n">
+        <v>423</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="K73" s="12" t="n">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="E74" s="8" t="n">
-        <v>54990</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="56" t="n">
-        <v>438</v>
-      </c>
+        <v>59990</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="52"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12" t="n">
-        <v>170</v>
-      </c>
-      <c r="K74" s="12" t="n">
-        <v>258</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="K74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="57" t="s">
-        <v>142</v>
+      <c r="A75" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="40" t="n">
-        <v>64990</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="58" t="n">
-        <v>423</v>
+        <v>45</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>69990</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="52" t="n">
+        <v>531</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K75" s="12" t="n">
-        <v>449</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="16" t="n">
+        <v>76290</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="40" t="n">
-        <v>73290</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="58" t="n">
-        <v>423</v>
+      <c r="G76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="23" t="n">
+        <v>488</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12" t="n">
         <v>210</v>
       </c>
       <c r="K76" s="12" t="n">
-        <v>449</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="8" t="n">
-        <v>59990</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" s="52"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12" t="n">
-        <v>210</v>
-      </c>
-      <c r="K77" s="12"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="8" t="n">
-        <v>69990</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="52" t="n">
-        <v>531</v>
-      </c>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12" t="n">
-        <v>210</v>
-      </c>
-      <c r="K78" s="12" t="n">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="16" t="n">
-        <v>76290</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="23" t="n">
-        <v>488</v>
-      </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12" t="n">
-        <v>210</v>
-      </c>
-      <c r="K79" s="12" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="62"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="64"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="63"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="64"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="63"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="64"/>
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="63"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,32 +4198,32 @@
       <c r="G98" s="63"/>
       <c r="H98" s="63"/>
       <c r="I98" s="63"/>
-      <c r="J98" s="65"/>
+      <c r="J98" s="63"/>
       <c r="K98" s="63"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="64"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="63"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F100" s="64"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="63"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="63"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="66"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="64"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
-      <c r="J101" s="63"/>
-      <c r="K101" s="63"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="66"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="64"/>
@@ -11917,102 +11801,78 @@
       <c r="J1048" s="66"/>
       <c r="K1048" s="66"/>
     </row>
-    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1049" s="64"/>
-      <c r="G1049" s="66"/>
-      <c r="H1049" s="66"/>
-      <c r="I1049" s="66"/>
-      <c r="J1049" s="66"/>
-      <c r="K1049" s="66"/>
-    </row>
-    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1050" s="64"/>
-      <c r="G1050" s="66"/>
-      <c r="H1050" s="66"/>
-      <c r="I1050" s="66"/>
-      <c r="J1050" s="66"/>
-      <c r="K1050" s="66"/>
-    </row>
-    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1051" s="64"/>
-      <c r="G1051" s="66"/>
-      <c r="H1051" s="66"/>
-      <c r="I1051" s="66"/>
-      <c r="J1051" s="66"/>
-      <c r="K1051" s="66"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="Honda"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$A2="Kia"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$A2="Hyundai"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$A2="Wolksvagen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$A2="Chevrolet"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$A2="Nissan"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$A2="Mazda"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$A2="Toyota"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$A2="Ford"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$A2="Polestar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$A2="Tesla"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$A2="Volvo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$A2="Audi"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$A2="Mercedes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22 A2:C5 A12:C18">
+  <conditionalFormatting sqref="A20:C20 A2:C4 A11:C16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="30000"/>
@@ -12024,27 +11884,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C79">
+  <conditionalFormatting sqref="A2:C76">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$A2="BMW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D79">
+  <conditionalFormatting sqref="D2:D76">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>"ICE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D79">
+  <conditionalFormatting sqref="D2:D76">
     <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"BEV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D79">
+  <conditionalFormatting sqref="D2:D76">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"Hybrid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H101">
+  <conditionalFormatting sqref="H2:H98">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="formula" val="200"/>
@@ -12056,7 +11916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J101">
+  <conditionalFormatting sqref="J2:J98">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="50"/>
@@ -12068,22 +11928,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78 G86:G88 G90:G92 G94:G96 G98:G100 H75:H76 G2:G84">
+  <conditionalFormatting sqref="H75 G83:G85 G87:G89 G91:G93 G95:G97 H72:H73 G2:G81">
     <cfRule type="containsText" priority="23" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="AWD" dxfId="17">
       <formula>NOT(ISERROR(SEARCH("AWD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78 G86:G88 G90:G92 G94:G96 G98:G100 H75:H76 G2:G84">
+  <conditionalFormatting sqref="H75 G83:G85 G87:G89 G91:G93 G95:G97 H72:H73 G2:G81">
     <cfRule type="containsText" priority="24" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="RWD" dxfId="18">
       <formula>NOT(ISERROR(SEARCH("RWD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78 G86:G88 G90:G92 G94:G96 G98:G100 H75:H76 G2:G84">
+  <conditionalFormatting sqref="H75 G83:G85 G87:G89 G91:G93 G95:G97 H72:H73 G2:G81">
     <cfRule type="containsText" priority="25" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="FWD" dxfId="16">
       <formula>NOT(ISERROR(SEARCH("FWD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K101">
+  <conditionalFormatting sqref="K2:K98">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="100"/>
@@ -12095,7 +11955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I101">
+  <conditionalFormatting sqref="I2:I98">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12108,48 +11968,44 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=civic_sedan&amp;model_year=2023#/trims"/>
+    <hyperlink ref="F5" r:id="rId1" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=hr_v&amp;model_year=2024#/trims"/>
     <hyperlink ref="F6" r:id="rId2" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=hr_v&amp;model_year=2024#/trims"/>
     <hyperlink ref="F7" r:id="rId3" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=hr_v&amp;model_year=2024#/trims"/>
-    <hyperlink ref="F8" r:id="rId4" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=hr_v&amp;model_year=2024#/trims"/>
-    <hyperlink ref="F9" r:id="rId5" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=cr-v&amp;model_year=2023#/trims"/>
-    <hyperlink ref="F10" r:id="rId6" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=cr-v&amp;model_year=2023#/trims"/>
-    <hyperlink ref="F11" r:id="rId7" location="/trims" display="https://www.honda.ca/buildyourhonda?model_key=cr-v&amp;model_year=2023#/trims"/>
-    <hyperlink ref="F19" r:id="rId8" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
-    <hyperlink ref="F20" r:id="rId9" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
-    <hyperlink ref="F21" r:id="rId10" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
-    <hyperlink ref="F22" r:id="rId11" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-elantra&amp;filter=gasoline"/>
-    <hyperlink ref="F23" r:id="rId12" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
-    <hyperlink ref="F24" r:id="rId13" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
-    <hyperlink ref="F25" r:id="rId14" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
-    <hyperlink ref="F30" r:id="rId15" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-5"/>
-    <hyperlink ref="F31" r:id="rId16" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-5"/>
-    <hyperlink ref="F32" r:id="rId17" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-5"/>
-    <hyperlink ref="F33" r:id="rId18" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-kona-electric"/>
-    <hyperlink ref="F34" r:id="rId19" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-kona-electric"/>
-    <hyperlink ref="F35" r:id="rId20" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-6"/>
-    <hyperlink ref="F36" r:id="rId21" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-6"/>
-    <hyperlink ref="F37" r:id="rId22" location="/2023/MX-30/" display="https://www.mazda.ca/en/shopping/build-and-price/#/2023/MX-30/"/>
-    <hyperlink ref="F51" r:id="rId23" display="https://www.nissan.ca/shopping-tools/build-price?models=leaf"/>
-    <hyperlink ref="F52" r:id="rId24" display="https://www.nissan.ca/shopping-tools/build-price?models=leaf"/>
-    <hyperlink ref="F54" r:id="rId25" display="https://www.nissan.ca/shopping-tools/build-price?models=ariya"/>
-    <hyperlink ref="F55" r:id="rId26" display="https://www.nissan.ca/shopping-tools/build-price?models=ariya"/>
-    <hyperlink ref="F56" r:id="rId27" display="https://www.vw.com/en/builder.html/__app/id-4.app?---=%7B%22configuration-step-navigation-service%22%3A%22%2F%3FconfigStep%3D%257B%2522context%2522%253A%252230291-31810-ID.4%2BStandard%2522%252C%2522selectedStep%2522%253A%2522trim%2522%257D%22%7D"/>
-    <hyperlink ref="F57" r:id="rId28" display="https://www.vw.com/en/builder.html/__app/id-4.app?---=%7B%22configuration-step-navigation-service%22%3A%22%2F%3FconfigStep%3D%257B%2522context%2522%253A%252230291-31810-ID.4%2BStandard%2522%252C%2522selectedStep%2522%253A%2522trim%2522%257D%22%7D"/>
-    <hyperlink ref="F58" r:id="rId29" display="https://www.vw.com/en/builder.html/__app/id-4.app?---=%7B%22configuration-step-navigation-service%22%3A%22%2F%3FconfigStep%3D%257B%2522context%2522%253A%252230291-31810-ID.4%2BStandard%2522%252C%2522selectedStep%2522%253A%2522trim%2522%257D%22%7D"/>
-    <hyperlink ref="F66" r:id="rId30" location="extras" display="https://www.polestar.com/en-ca/polestar-2/configurator/eyJEIjoiV2ViIiwiRSI6eyJlIjpudWxsfSwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsLCJzdCI6Ik5vbmUiLCJyIjpudWxsLCJiIjpudWxsLCJldCI6bnVsbH0sIkZGIjpudWxsLCJQIjpmYWxzZSwiTyI6bnVsbCwiUyI6IjUzNEZFUEIwTDEzOTczNjAwUjYwMDAwX19fQkQwMkVWMDFKQjBBSlQwMUs1MDJMRjAxTFIwMU5DMDFQRDAxUjE4NCIsIlUiOm51bGx9#extras"/>
-    <hyperlink ref="F67" r:id="rId31" location="extras" display="https://www.polestar.com/en-ca/polestar-2/configurator/eyJEIjoiV2ViIiwiRSI6eyJlIjpudWxsfSwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsLCJzdCI6Ik5vbmUiLCJyIjpudWxsLCJiIjpudWxsLCJldCI6bnVsbH0sIkZGIjpudWxsLCJQIjpmYWxzZSwiTyI6bnVsbCwiUyI6IjUzNEZFUEIwTDEzOTczNjAwUjYwMDAwX19fQkQwMkVWMDFKQjBBSlQwMUs1MDJMRjAxTFIwMU5DMDFQRDAxUjE4NCIsIlUiOm51bGx9#extras"/>
-    <hyperlink ref="F68" r:id="rId32" display="https://configure.bmw.ca/en_CA/configure/G26E/234F/FKHSW,P0300,S01AG,S01CB,S01DE,S0205,S0255,S02VC,S03DE,S03F7,S0403,S0431,S0465,S0493,S04AT,S0508,S0534,S05AC,S05AL,S05AV,S0655,S06AG,S06AK,S06WC,S0760,S0775,S0823,S0838,S08BK,S0ZAO,S0ZE1,S0ZE2,S0ZFO,S0ZLE,S0ZRT,S0ZST,S0ZZU"/>
-    <hyperlink ref="F69" r:id="rId33" display="https://configure.bmw.ca/en_CA/configure/G26E/234F/FKHSW,P0300,S01AG,S01CB,S01DE,S0205,S0255,S02VC,S03DE,S03F7,S0403,S0431,S0465,S0493,S04AT,S0508,S0534,S05AC,S05AL,S05AV,S0655,S06AG,S06AK,S06WC,S0760,S0775,S0823,S0838,S08BK,S0ZAO,S0ZE1,S0ZE2,S0ZFO,S0ZLE,S0ZRT,S0ZST,S0ZZU"/>
-    <hyperlink ref="F70" r:id="rId34" display="https://www.audi.ca/ca/web/en/models/q4/q4-e-tron/build-price.html"/>
-    <hyperlink ref="F72" r:id="rId35" display="https://www.volvocars.com/en-ca/build/xc40-electric?postcode=V3L+1Z3&amp;taxTerritory=CA-BC"/>
-    <hyperlink ref="F73" r:id="rId36" display="https://www.volvocars.com/en-ca/build/xc40-electric?postcode=V3L+1Z3&amp;taxTerritory=CA-BC"/>
-    <hyperlink ref="F74" r:id="rId37" location="overview" display="https://www.tesla.com/en_ca/model3/design#overview"/>
-    <hyperlink ref="F75" r:id="rId38" location="overview" display="https://www.tesla.com/en_ca/model3/design#overview"/>
-    <hyperlink ref="F76" r:id="rId39" location="overview" display="https://www.tesla.com/en_ca/model3/design#overview"/>
-    <hyperlink ref="F77" r:id="rId40" location="overview" display="https://www.tesla.com/en_ca/modely/design#overview"/>
-    <hyperlink ref="F78" r:id="rId41" location="overview" display="https://www.tesla.com/en_ca/modely/design#overview"/>
-    <hyperlink ref="F79" r:id="rId42" location="overview" display="https://www.tesla.com/en_ca/modely/design#overview"/>
+    <hyperlink ref="F17" r:id="rId4" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
+    <hyperlink ref="F18" r:id="rId5" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
+    <hyperlink ref="F19" r:id="rId6" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
+    <hyperlink ref="F20" r:id="rId7" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-elantra&amp;filter=gasoline"/>
+    <hyperlink ref="F21" r:id="rId8" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
+    <hyperlink ref="F22" r:id="rId9" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
+    <hyperlink ref="F23" r:id="rId10" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
+    <hyperlink ref="F27" r:id="rId11" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-5"/>
+    <hyperlink ref="F28" r:id="rId12" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-5"/>
+    <hyperlink ref="F29" r:id="rId13" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-5"/>
+    <hyperlink ref="F30" r:id="rId14" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-kona-electric"/>
+    <hyperlink ref="F31" r:id="rId15" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-kona-electric"/>
+    <hyperlink ref="F32" r:id="rId16" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-6"/>
+    <hyperlink ref="F33" r:id="rId17" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-ioniq-6"/>
+    <hyperlink ref="F34" r:id="rId18" location="/2023/MX-30/" display="https://www.mazda.ca/en/shopping/build-and-price/#/2023/MX-30/"/>
+    <hyperlink ref="F48" r:id="rId19" display="https://www.nissan.ca/shopping-tools/build-price?models=leaf"/>
+    <hyperlink ref="F49" r:id="rId20" display="https://www.nissan.ca/shopping-tools/build-price?models=leaf"/>
+    <hyperlink ref="F51" r:id="rId21" display="https://www.nissan.ca/shopping-tools/build-price?models=ariya"/>
+    <hyperlink ref="F52" r:id="rId22" display="https://www.nissan.ca/shopping-tools/build-price?models=ariya"/>
+    <hyperlink ref="F53" r:id="rId23" display="https://www.vw.com/en/builder.html/__app/id-4.app?---=%7B%22configuration-step-navigation-service%22%3A%22%2F%3FconfigStep%3D%257B%2522context%2522%253A%252230291-31810-ID.4%2BStandard%2522%252C%2522selectedStep%2522%253A%2522trim%2522%257D%22%7D"/>
+    <hyperlink ref="F54" r:id="rId24" display="https://www.vw.com/en/builder.html/__app/id-4.app?---=%7B%22configuration-step-navigation-service%22%3A%22%2F%3FconfigStep%3D%257B%2522context%2522%253A%252230291-31810-ID.4%2BStandard%2522%252C%2522selectedStep%2522%253A%2522trim%2522%257D%22%7D"/>
+    <hyperlink ref="F55" r:id="rId25" display="https://www.vw.com/en/builder.html/__app/id-4.app?---=%7B%22configuration-step-navigation-service%22%3A%22%2F%3FconfigStep%3D%257B%2522context%2522%253A%252230291-31810-ID.4%2BStandard%2522%252C%2522selectedStep%2522%253A%2522trim%2522%257D%22%7D"/>
+    <hyperlink ref="F63" r:id="rId26" location="extras" display="https://www.polestar.com/en-ca/polestar-2/configurator/eyJEIjoiV2ViIiwiRSI6eyJlIjpudWxsfSwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsLCJzdCI6Ik5vbmUiLCJyIjpudWxsLCJiIjpudWxsLCJldCI6bnVsbH0sIkZGIjpudWxsLCJQIjpmYWxzZSwiTyI6bnVsbCwiUyI6IjUzNEZFUEIwTDEzOTczNjAwUjYwMDAwX19fQkQwMkVWMDFKQjBBSlQwMUs1MDJMRjAxTFIwMU5DMDFQRDAxUjE4NCIsIlUiOm51bGx9#extras"/>
+    <hyperlink ref="F64" r:id="rId27" location="extras" display="https://www.polestar.com/en-ca/polestar-2/configurator/eyJEIjoiV2ViIiwiRSI6eyJlIjpudWxsfSwiRiI6eyJjIjoiQjJDIiwiZiI6IkNhc2giLCJkIjpudWxsLCJtIjpudWxsLCJ0IjpudWxsLCJzdCI6Ik5vbmUiLCJyIjpudWxsLCJiIjpudWxsLCJldCI6bnVsbH0sIkZGIjpudWxsLCJQIjpmYWxzZSwiTyI6bnVsbCwiUyI6IjUzNEZFUEIwTDEzOTczNjAwUjYwMDAwX19fQkQwMkVWMDFKQjBBSlQwMUs1MDJMRjAxTFIwMU5DMDFQRDAxUjE4NCIsIlUiOm51bGx9#extras"/>
+    <hyperlink ref="F65" r:id="rId28" display="https://configure.bmw.ca/en_CA/configure/G26E/234F/FKHSW,P0300,S01AG,S01CB,S01DE,S0205,S0255,S02VC,S03DE,S03F7,S0403,S0431,S0465,S0493,S04AT,S0508,S0534,S05AC,S05AL,S05AV,S0655,S06AG,S06AK,S06WC,S0760,S0775,S0823,S0838,S08BK,S0ZAO,S0ZE1,S0ZE2,S0ZFO,S0ZLE,S0ZRT,S0ZST,S0ZZU"/>
+    <hyperlink ref="F66" r:id="rId29" display="https://configure.bmw.ca/en_CA/configure/G26E/234F/FKHSW,P0300,S01AG,S01CB,S01DE,S0205,S0255,S02VC,S03DE,S03F7,S0403,S0431,S0465,S0493,S04AT,S0508,S0534,S05AC,S05AL,S05AV,S0655,S06AG,S06AK,S06WC,S0760,S0775,S0823,S0838,S08BK,S0ZAO,S0ZE1,S0ZE2,S0ZFO,S0ZLE,S0ZRT,S0ZST,S0ZZU"/>
+    <hyperlink ref="F67" r:id="rId30" display="https://www.audi.ca/ca/web/en/models/q4/q4-e-tron/build-price.html"/>
+    <hyperlink ref="F69" r:id="rId31" display="https://www.volvocars.com/en-ca/build/xc40-electric?postcode=V3L+1Z3&amp;taxTerritory=CA-BC"/>
+    <hyperlink ref="F70" r:id="rId32" display="https://www.volvocars.com/en-ca/build/xc40-electric?postcode=V3L+1Z3&amp;taxTerritory=CA-BC"/>
+    <hyperlink ref="F71" r:id="rId33" location="overview" display="https://www.tesla.com/en_ca/model3/design#overview"/>
+    <hyperlink ref="F72" r:id="rId34" location="overview" display="https://www.tesla.com/en_ca/model3/design#overview"/>
+    <hyperlink ref="F73" r:id="rId35" location="overview" display="https://www.tesla.com/en_ca/model3/design#overview"/>
+    <hyperlink ref="F74" r:id="rId36" location="overview" display="https://www.tesla.com/en_ca/modely/design#overview"/>
+    <hyperlink ref="F75" r:id="rId37" location="overview" display="https://www.tesla.com/en_ca/modely/design#overview"/>
+    <hyperlink ref="F76" r:id="rId38" location="overview" display="https://www.tesla.com/en_ca/modely/design#overview"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -12168,8 +12024,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12177,23 +12033,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>151</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="70" t="n">
         <v>5000</v>
@@ -12204,84 +12060,84 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="70" t="n">
         <v>4000</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="70" t="n">
         <v>2000</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="70" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="70" t="n">
         <v>5000</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="70" t="n">
         <v>3000</v>
@@ -12292,29 +12148,29 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" s="70" t="n">
         <v>5000</v>
@@ -12325,7 +12181,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" s="70" t="n">
         <v>7000</v>
@@ -12336,32 +12192,32 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16" s="70" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -12394,15 +12250,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="75" t="n">
         <v>0.05</v>
@@ -12410,7 +12266,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="75" t="n">
         <v>0</v>
@@ -12418,7 +12274,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="75" t="n">
         <v>0.07</v>
@@ -12426,7 +12282,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="75" t="n">
         <v>0.07</v>
@@ -12434,7 +12290,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="75" t="n">
         <v>0.1</v>
@@ -12442,7 +12298,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="75" t="n">
         <v>0.1</v>
@@ -12450,7 +12306,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="75" t="n">
         <v>0</v>
@@ -12458,7 +12314,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="75" t="n">
         <v>0.1</v>
@@ -12466,7 +12322,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="75" t="n">
         <v>0</v>
@@ -12474,7 +12330,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="75" t="n">
         <v>0.08</v>
@@ -12482,7 +12338,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" s="75" t="n">
         <v>0.1</v>
@@ -12490,7 +12346,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="75" t="n">
         <v>0.09975</v>
@@ -12498,7 +12354,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="75" t="n">
         <v>0.06</v>
@@ -12506,7 +12362,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" s="75" t="n">
         <v>0</v>
@@ -12514,10 +12370,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12589,15 +12445,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="69" t="n">
         <v>146</v>
@@ -12605,7 +12461,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" s="69" t="n">
         <v>187.8</v>
@@ -12613,7 +12469,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="69" t="n">
         <v>163</v>
@@ -12621,7 +12477,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="69" t="n">
         <v>159.1</v>
@@ -12629,7 +12485,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="69" t="n">
         <v>165.5</v>
@@ -12637,7 +12493,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="69" t="n">
         <v>166</v>
@@ -12645,7 +12501,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="69" t="n">
         <v>151.4</v>
@@ -12653,7 +12509,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="69" t="n">
         <v>158.8</v>
@@ -12661,7 +12517,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="69" t="n">
         <v>156.1</v>
@@ -12669,7 +12525,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="69" t="n">
         <v>161.2</v>
@@ -12677,7 +12533,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="69" t="n">
         <v>166.4</v>
@@ -12685,7 +12541,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="69" t="n">
         <v>160</v>
@@ -12693,7 +12549,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="69" t="n">
         <v>183.9</v>
@@ -12701,10 +12557,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -12736,15 +12592,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="74" t="n">
         <v>16.6</v>
@@ -12752,7 +12608,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" s="74" t="n">
         <v>12.6</v>
@@ -12760,7 +12616,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="74" t="n">
         <v>9.9</v>
@@ -12768,7 +12624,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="74" t="n">
         <v>12.7</v>
@@ -12776,7 +12632,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="74" t="n">
         <v>13.8</v>
@@ -12784,7 +12640,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="74" t="n">
         <v>38.2</v>
@@ -12792,7 +12648,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="74" t="n">
         <v>17.1</v>
@@ -12800,7 +12656,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="74" t="n">
         <v>37.5</v>
@@ -12808,7 +12664,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="74" t="n">
         <v>13</v>
@@ -12816,7 +12672,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="74" t="n">
         <v>17.4</v>
@@ -12824,7 +12680,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="74" t="n">
         <v>7.3</v>
@@ -12832,7 +12688,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="74" t="n">
         <v>18.1</v>
@@ -12840,7 +12696,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="74" t="n">
         <v>18.7</v>
@@ -12848,10 +12704,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -12883,15 +12739,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="79" t="n">
         <v>2700</v>
@@ -12899,7 +12755,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="79" t="n">
         <v>1800</v>
@@ -12907,7 +12763,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="79" t="n">
         <v>2195</v>
@@ -12923,7 +12779,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="79" t="n">
         <v>0</v>
@@ -12931,7 +12787,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="79" t="n">
         <v>2000</v>
@@ -12939,7 +12795,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="79" t="n">
         <v>1995</v>
@@ -12947,7 +12803,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="79" t="n">
         <v>2215</v>
@@ -12955,7 +12811,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="79" t="n">
         <v>2300</v>
@@ -12963,7 +12819,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="79" t="n">
         <v>1880</v>
@@ -12971,7 +12827,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="79" t="n">
         <v>1890</v>
@@ -12979,7 +12835,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="79" t="n">
         <v>2435</v>
@@ -12987,7 +12843,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="79" t="n">
         <v>2000</v>
@@ -12995,7 +12851,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="79" t="n">
         <v>3195</v>
@@ -13010,91 +12866,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.49"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.plugndrive.ca/electric-vehicle-incentives/"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/app/data/EV_list_Canada.xlsx
+++ b/app/data/EV_list_Canada.xlsx
@@ -732,7 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70C78C"/>
+        <fgColor rgb="FF71C88C"/>
         <bgColor rgb="FF7CC890"/>
       </patternFill>
     </fill>
@@ -768,7 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF70C78C"/>
+        <fgColor rgb="FF71C88C"/>
         <bgColor rgb="FF7CC890"/>
       </patternFill>
     </fill>
@@ -787,7 +787,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7CC890"/>
-        <bgColor rgb="FF87CA90"/>
+        <bgColor rgb="FF71C88C"/>
       </patternFill>
     </fill>
     <fill>
@@ -798,8 +798,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF69B061"/>
-        <bgColor rgb="FF70C78C"/>
+        <fgColor rgb="FF69B060"/>
+        <bgColor rgb="FF71C88C"/>
       </patternFill>
     </fill>
     <fill>
@@ -888,8 +888,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF69B061"/>
-        <bgColor rgb="FF70C78C"/>
+        <fgColor rgb="FF69B060"/>
+        <bgColor rgb="FF71C88C"/>
       </patternFill>
     </fill>
     <fill>
@@ -919,7 +919,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF69B061"/>
+        <bgColor rgb="FF69B060"/>
       </patternFill>
     </fill>
     <fill>
@@ -1608,7 +1608,7 @@
       <rgbColor rgb="FFE6B8AF"/>
       <rgbColor rgb="FFF9D9B9"/>
       <rgbColor rgb="FF1F6EE1"/>
-      <rgbColor rgb="FF70C78C"/>
+      <rgbColor rgb="FF71C88C"/>
       <rgbColor rgb="FF93C47D"/>
       <rgbColor rgb="FFEC9B8A"/>
       <rgbColor rgb="FFF6B26B"/>
@@ -1616,7 +1616,7 @@
       <rgbColor rgb="FF99CE98"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFB7E1CD"/>
-      <rgbColor rgb="FF69B061"/>
+      <rgbColor rgb="FF69B060"/>
       <rgbColor rgb="FFECECC5"/>
       <rgbColor rgb="FFC1DEB4"/>
       <rgbColor rgb="FFB4DAAF"/>
@@ -1635,8 +1635,8 @@
   </sheetPr>
   <dimension ref="A1:K1048"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2269,7 +2269,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="16" t="n">
-        <v>3111</v>
+        <v>31110</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>54</v>
@@ -11974,7 +11974,7 @@
     <hyperlink ref="F17" r:id="rId4" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
     <hyperlink ref="F18" r:id="rId5" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
     <hyperlink ref="F19" r:id="rId6" display="https://www.toyota.ca/toyota/en/build-price/bz4x"/>
-    <hyperlink ref="F20" r:id="rId7" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-elantra&amp;filter=gasoline"/>
+    <hyperlink ref="F20" r:id="rId7" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-elantra&amp;filter=gasoline4"/>
     <hyperlink ref="F21" r:id="rId8" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
     <hyperlink ref="F22" r:id="rId9" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
     <hyperlink ref="F23" r:id="rId10" display="https://www.hyundaicanada.com/en/shopping-tools/buildandprice/build?step=2&amp;model=2023-tucson&amp;filter=gasoline"/>
